--- a/storage/chile_regions.xlsx
+++ b/storage/chile_regions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Region</t>
   </si>
@@ -24,109 +24,121 @@
     <t>Code</t>
   </si>
   <si>
-    <t>ANTOFAGASTA</t>
-  </si>
-  <si>
     <t>ANF</t>
   </si>
   <si>
-    <t>ARICA</t>
+    <t>CCP</t>
+  </si>
+  <si>
+    <t>CJC</t>
+  </si>
+  <si>
+    <t>CPO</t>
+  </si>
+  <si>
+    <t>GXQ</t>
+  </si>
+  <si>
+    <t>IQQ</t>
+  </si>
+  <si>
+    <t>ZAL</t>
+  </si>
+  <si>
+    <t>LSQ</t>
+  </si>
+  <si>
+    <t>PUQ</t>
+  </si>
+  <si>
+    <t>RCG</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Arica</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>Calama</t>
+  </si>
+  <si>
+    <t>Copiapo</t>
+  </si>
+  <si>
+    <t>Coyhaique</t>
+  </si>
+  <si>
+    <t>Iquique</t>
+  </si>
+  <si>
+    <t>Vina del Mar</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>Punta Arenas</t>
+  </si>
+  <si>
+    <t>Rancagua</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Chillan</t>
+  </si>
+  <si>
+    <t>Valdivia</t>
+  </si>
+  <si>
+    <t>Talca</t>
+  </si>
+  <si>
+    <t>Temuco</t>
+  </si>
+  <si>
+    <t>La Calera</t>
+  </si>
+  <si>
+    <t>Osorno</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>LSC</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>YAI</t>
+  </si>
+  <si>
+    <t>ZCA</t>
+  </si>
+  <si>
+    <t>ZCO</t>
+  </si>
+  <si>
+    <t>ZLC</t>
+  </si>
+  <si>
+    <t>ZOS</t>
   </si>
   <si>
     <t>ARI</t>
-  </si>
-  <si>
-    <t>CURICO</t>
-  </si>
-  <si>
-    <t>CONCEPCION</t>
-  </si>
-  <si>
-    <t>CCO</t>
-  </si>
-  <si>
-    <t>CCP</t>
-  </si>
-  <si>
-    <t>CALAMA</t>
-  </si>
-  <si>
-    <t>CJC</t>
-  </si>
-  <si>
-    <t>COPIAPO</t>
-  </si>
-  <si>
-    <t>CPO</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CTR</t>
-  </si>
-  <si>
-    <t>COYHAIQUE</t>
-  </si>
-  <si>
-    <t>GXQ</t>
-  </si>
-  <si>
-    <t>IQUIQUE</t>
-  </si>
-  <si>
-    <t>IQQ</t>
-  </si>
-  <si>
-    <t>VINA DEL MAR</t>
-  </si>
-  <si>
-    <t>ZAL</t>
-  </si>
-  <si>
-    <t>LOS ANDES</t>
-  </si>
-  <si>
-    <t>LOB</t>
-  </si>
-  <si>
-    <t>LA SERENA</t>
-  </si>
-  <si>
-    <t>COQ</t>
-  </si>
-  <si>
-    <t>LOS ANGELES</t>
-  </si>
-  <si>
-    <t>LSQ</t>
-  </si>
-  <si>
-    <t>OVALLE</t>
-  </si>
-  <si>
-    <t>OVL</t>
-  </si>
-  <si>
-    <t>PUERTO MONTT</t>
-  </si>
-  <si>
-    <t>ALE</t>
-  </si>
-  <si>
-    <t>PUNTA ARENAS</t>
-  </si>
-  <si>
-    <t>PUQ</t>
-  </si>
-  <si>
-    <t>RANCAGUA</t>
-  </si>
-  <si>
-    <t>RCG</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
   </si>
   <si>
     <t>SCL</t>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,82 +511,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,63 +594,79 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
